--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -937,7 +937,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-bothersome-health-concern-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-valueset</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>
@@ -1833,7 +1833,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.8125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.8515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -937,7 +937,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-examples-vs</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>
@@ -1833,7 +1833,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.8515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -937,7 +937,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-bothersome-health-concern-examples-vs</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-goal-barrier-types-example-vs</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>
@@ -1833,7 +1833,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PCOGoalBarrier</t>
+    <t>PCOGoalBarrierProfile</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-barrier.xlsx
+++ b/StructureDefinition-pco-goal-barrier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
